--- a/biology/Zoologie/Gobemouche_bleu/Gobemouche_bleu.xlsx
+++ b/biology/Zoologie/Gobemouche_bleu/Gobemouche_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanoptila cyanomelana
 Le Gobemouche bleu (Cyanoptila cyanomelana) est une espèce de passereau appartenant à la famille des Muscicapidae. Il est aussi appelé Gobemouche du Japon.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gobemouche bleu mesure jusqu'à 18 cm de long de la tête à la queue[1]. Il est de couleur bleu vif avec un ventre blanc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gobemouche bleu mesure jusqu'à 18 cm de long de la tête à la queue. Il est de couleur bleu vif avec un ventre blanc.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce insectivore qui se nourrit dans la canopée des forêts.
 </t>
@@ -574,13 +590,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce passereau se reproduit en Manchourie, en Corée et au Japon ; il hiverne en Asie du Sud-Est.
-Taxonomie
-Cyanoptila cyanomelana a deux sous-espèces[2] :
-C. c. cyanomelana ;
-C. c. intermedia.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce passereau se reproduit en Manchourie, en Corée et au Japon ; il hiverne en Asie du Sud-Est.
+</t>
         </is>
       </c>
     </row>
@@ -605,10 +620,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cyanoptila cyanomelana a deux sous-espèces :
+C. c. cyanomelana ;
+C. c. intermedia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gobemouche_bleu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_bleu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Symbole municipal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Japon, le Gobemouche bleu est l'oiseau symbole des municipalités de Myōkō, Hachiōji et Umaji, entre autres.
 </t>
